--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/89_LIB_VMCommons/89_LibFormula.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/89_LIB_VMCommons/89_LibFormula.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="53625" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="1"/>
+    <workbookView xWindow="53625" yWindow="0" windowWidth="20490" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="Library" sheetId="1" r:id="rId1"/>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>Action</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>getDefaultNodeGroupsConf</t>
+  </si>
+  <si>
+    <t>getSqlFromExpQuery</t>
   </si>
 </sst>
 </file>
@@ -712,9 +715,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -734,7 +737,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -745,10 +747,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -838,6 +840,23 @@
         <v>13</v>
       </c>
       <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
